--- a/dumbarton_det_files_update/oppo 3300' W of toll Plaza 426453/2024-09-17_426453.xlsx
+++ b/dumbarton_det_files_update/oppo 3300' W of toll Plaza 426453/2024-09-17_426453.xlsx
@@ -75945,7 +75945,7 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 12:29</t>
+          <t>05/09/2025 20:47</t>
         </is>
       </c>
     </row>
